--- a/results/mp/tinybert/corona/confidence/84/0.5/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="78">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,12 +43,12 @@
     <t>crude</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
@@ -58,163 +58,196 @@
     <t>sc</t>
   </si>
   <si>
+    <t>stop</t>
+  </si>
+  <si>
     <t>no</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>demand</t>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>our</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>your</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>as</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>at</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>are</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>on</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>to</t>
   </si>
   <si>
     <t>co</t>
   </si>
   <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>!</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>for</t>
-  </si>
-  <si>
-    <t>of</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>the</t>
-  </si>
-  <si>
-    <t>to</t>
-  </si>
-  <si>
-    <t>in</t>
+    <t>prices</t>
   </si>
   <si>
     <t>corona</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -572,7 +605,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q51"/>
+  <dimension ref="A1:Q63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -580,10 +613,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -641,13 +674,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.88</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C3">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -659,19 +692,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K3">
-        <v>0.9583333333333334</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="L3">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="M3">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -683,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -691,13 +724,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7597402597402597</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="C4">
-        <v>117</v>
+        <v>26</v>
       </c>
       <c r="D4">
-        <v>117</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -709,19 +742,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K4">
-        <v>0.9444444444444444</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L4">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="M4">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -733,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -741,13 +774,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.625</v>
+        <v>0.660958904109589</v>
       </c>
       <c r="C5">
-        <v>15</v>
+        <v>193</v>
       </c>
       <c r="D5">
-        <v>15</v>
+        <v>193</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -759,19 +792,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K5">
-        <v>0.9375</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L5">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="M5">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -783,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -791,13 +824,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.4549356223175965</v>
+        <v>0.2751937984496124</v>
       </c>
       <c r="C6">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="D6">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -809,19 +842,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>127</v>
+        <v>374</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K6">
-        <v>0.9</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L6">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="M6">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -833,7 +866,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -841,13 +874,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3125</v>
+        <v>0.2684563758389262</v>
       </c>
       <c r="C7">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D7">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -859,19 +892,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K7">
-        <v>0.875</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L7">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="M7">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -883,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -891,37 +924,37 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.2558139534883721</v>
+        <v>0.2275132275132275</v>
       </c>
       <c r="C8">
+        <v>43</v>
+      </c>
+      <c r="D8">
+        <v>43</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>146</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D8">
-        <v>22</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>64</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="K8">
-        <v>0.8518518518518519</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L8">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="M8">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -933,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -941,13 +974,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.2222222222222222</v>
+        <v>0.1349206349206349</v>
       </c>
       <c r="C9">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D9">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -959,19 +992,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>105</v>
+        <v>218</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K9">
-        <v>0.8333333333333334</v>
+        <v>0.8205128205128205</v>
       </c>
       <c r="L9">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="M9">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -983,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -991,13 +1024,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.2</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C10">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D10">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1009,69 +1042,45 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>88</v>
+        <v>320</v>
       </c>
       <c r="J10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10">
+        <v>0.796875</v>
+      </c>
+      <c r="L10">
+        <v>102</v>
+      </c>
+      <c r="M10">
+        <v>102</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>26</v>
       </c>
-      <c r="K10">
-        <v>0.8235294117647058</v>
-      </c>
-      <c r="L10">
-        <v>42</v>
-      </c>
-      <c r="M10">
-        <v>42</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>9</v>
-      </c>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0.08602150537634409</v>
-      </c>
-      <c r="C11">
-        <v>16</v>
-      </c>
-      <c r="D11">
-        <v>16</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>170</v>
-      </c>
       <c r="J11" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K11">
-        <v>0.8235294117647058</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="L11">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M11">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1083,45 +1092,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>0.009120521172638436</v>
-      </c>
-      <c r="C12">
-        <v>14</v>
-      </c>
-      <c r="D12">
-        <v>43</v>
-      </c>
-      <c r="E12">
-        <v>0.67</v>
-      </c>
-      <c r="F12">
-        <v>0.33</v>
-      </c>
-      <c r="G12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>1521</v>
-      </c>
       <c r="J12" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K12">
-        <v>0.8214285714285714</v>
+        <v>0.7535211267605634</v>
       </c>
       <c r="L12">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="M12">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1133,21 +1118,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>10</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K13">
-        <v>0.8103448275862069</v>
+        <v>0.7450980392156863</v>
       </c>
       <c r="L13">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="M13">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1159,21 +1144,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K14">
-        <v>0.76</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L14">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M14">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1185,21 +1170,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K15">
-        <v>0.7586206896551724</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L15">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="M15">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1211,21 +1196,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>7</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K16">
-        <v>0.7575757575757576</v>
+        <v>0.7075471698113207</v>
       </c>
       <c r="L16">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="M16">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1237,21 +1222,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K17">
-        <v>0.7368421052631579</v>
+        <v>0.7</v>
       </c>
       <c r="L17">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="M17">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1263,21 +1248,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K18">
-        <v>0.6666666666666666</v>
+        <v>0.68125</v>
       </c>
       <c r="L18">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="M18">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1289,21 +1274,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>8</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K19">
-        <v>0.6538461538461539</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L19">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="M19">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1315,21 +1300,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K20">
-        <v>0.647887323943662</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="L20">
-        <v>138</v>
+        <v>31</v>
       </c>
       <c r="M20">
-        <v>138</v>
+        <v>31</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1341,21 +1326,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>75</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K21">
-        <v>0.6410256410256411</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="L21">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="M21">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1367,21 +1352,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K22">
-        <v>0.64</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L22">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="M22">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1393,21 +1378,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K23">
-        <v>0.6363636363636364</v>
+        <v>0.5796344647519582</v>
       </c>
       <c r="L23">
-        <v>14</v>
+        <v>222</v>
       </c>
       <c r="M23">
-        <v>14</v>
+        <v>222</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1419,21 +1404,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>8</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K24">
-        <v>0.6</v>
+        <v>0.5117647058823529</v>
       </c>
       <c r="L24">
-        <v>15</v>
+        <v>174</v>
       </c>
       <c r="M24">
-        <v>15</v>
+        <v>174</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1445,21 +1430,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>10</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K25">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="L25">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="M25">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1471,21 +1456,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K26">
-        <v>0.589041095890411</v>
+        <v>0.4915254237288136</v>
       </c>
       <c r="L26">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="M26">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1497,21 +1482,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>30</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K27">
-        <v>0.5763888888888888</v>
+        <v>0.4606741573033708</v>
       </c>
       <c r="L27">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="M27">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1523,21 +1508,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>61</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K28">
-        <v>0.5357142857142857</v>
+        <v>0.4461538461538462</v>
       </c>
       <c r="L28">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="M28">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1549,21 +1534,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K29">
-        <v>0.4961240310077519</v>
+        <v>0.4351464435146444</v>
       </c>
       <c r="L29">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="M29">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1575,21 +1560,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>65</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K30">
-        <v>0.4782608695652174</v>
+        <v>0.4246575342465753</v>
       </c>
       <c r="L30">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="M30">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1601,21 +1586,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K31">
-        <v>0.4571428571428571</v>
+        <v>0.4230769230769231</v>
       </c>
       <c r="L31">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="M31">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1627,21 +1612,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>19</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K32">
-        <v>0.4324324324324325</v>
+        <v>0.1100478468899522</v>
       </c>
       <c r="L32">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="M32">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1653,21 +1638,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>21</v>
+        <v>372</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K33">
-        <v>0.08292682926829269</v>
+        <v>0.1033653846153846</v>
       </c>
       <c r="L33">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="M33">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1679,73 +1664,73 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K34">
-        <v>0.07177033492822966</v>
+        <v>0.1031175059952038</v>
       </c>
       <c r="L34">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="M34">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="N34">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34">
-        <v>194</v>
+        <v>374</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K35">
-        <v>0.07032967032967033</v>
+        <v>0.07505070993914807</v>
       </c>
       <c r="L35">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="M35">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="N35">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="O35">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P35" t="b">
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>423</v>
+        <v>912</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K36">
-        <v>0.06103286384976526</v>
+        <v>0.06935123042505593</v>
       </c>
       <c r="L36">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="M36">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1757,151 +1742,151 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>400</v>
+        <v>832</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K37">
-        <v>0.05472636815920398</v>
+        <v>0.06776556776556776</v>
       </c>
       <c r="L37">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="M37">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="N37">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="O37">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P37" t="b">
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>380</v>
+        <v>509</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K38">
-        <v>0.04740406320541761</v>
+        <v>0.05930470347648262</v>
       </c>
       <c r="L38">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="M38">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="N38">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O38">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>422</v>
+        <v>460</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K39">
-        <v>0.04458598726114649</v>
+        <v>0.05771365149833518</v>
       </c>
       <c r="L39">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="M39">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="N39">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O39">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>300</v>
+        <v>849</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K40">
-        <v>0.04035874439461883</v>
+        <v>0.05572755417956656</v>
       </c>
       <c r="L40">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="M40">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="N40">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O40">
-        <v>0.15</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P40" t="b">
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>1070</v>
+        <v>610</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K41">
-        <v>0.03243243243243243</v>
+        <v>0.055</v>
       </c>
       <c r="L41">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="M41">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="N41">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O41">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>895</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K42">
-        <v>0.02877697841726619</v>
+        <v>0.05190311418685121</v>
       </c>
       <c r="L42">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="M42">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1913,241 +1898,553 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>810</v>
+        <v>822</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K43">
-        <v>0.02503912363067293</v>
+        <v>0.04930156121610518</v>
       </c>
       <c r="L43">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="M43">
-        <v>16</v>
+        <v>131</v>
       </c>
       <c r="N43">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="O43">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q43">
-        <v>623</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K44">
-        <v>0.02212855637513172</v>
+        <v>0.04652908067542214</v>
       </c>
       <c r="L44">
-        <v>21</v>
+        <v>124</v>
       </c>
       <c r="M44">
-        <v>25</v>
+        <v>132</v>
       </c>
       <c r="N44">
-        <v>0.84</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O44">
-        <v>0.16</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P44" t="b">
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>928</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K45">
-        <v>0.02132196162046908</v>
+        <v>0.04612546125461255</v>
       </c>
       <c r="L45">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M45">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="N45">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="O45">
-        <v>0.05000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P45" t="b">
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>918</v>
+        <v>517</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K46">
-        <v>0.02092050209205021</v>
+        <v>0.04368248003757633</v>
       </c>
       <c r="L46">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="M46">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="N46">
-        <v>0.91</v>
+        <v>0.87</v>
       </c>
       <c r="O46">
-        <v>0.08999999999999997</v>
+        <v>0.13</v>
       </c>
       <c r="P46" t="b">
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>1872</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K47">
+        <v>0.03962264150943396</v>
+      </c>
+      <c r="L47">
         <v>63</v>
       </c>
-      <c r="K47">
-        <v>0.01910507792860734</v>
-      </c>
-      <c r="L47">
-        <v>38</v>
-      </c>
       <c r="M47">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="N47">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O47">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47">
-        <v>1951</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K48">
-        <v>0.0189328743545611</v>
+        <v>0.0377113133940182</v>
       </c>
       <c r="L48">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M48">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N48">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="O48">
-        <v>0.07999999999999996</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P48" t="b">
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>1710</v>
+        <v>740</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="K49">
-        <v>0.01870967741935484</v>
+        <v>0.0365296803652968</v>
       </c>
       <c r="L49">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M49">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="N49">
-        <v>0.67</v>
+        <v>0.84</v>
       </c>
       <c r="O49">
-        <v>0.33</v>
+        <v>0.16</v>
       </c>
       <c r="P49" t="b">
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>1521</v>
+        <v>844</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K50">
-        <v>0.01609195402298851</v>
+        <v>0.03424657534246575</v>
       </c>
       <c r="L50">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M50">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="N50">
-        <v>0.78</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O50">
-        <v>0.22</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P50" t="b">
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>856</v>
+        <v>846</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K51">
+        <v>0.0328986960882648</v>
+      </c>
+      <c r="L51">
+        <v>164</v>
+      </c>
+      <c r="M51">
+        <v>175</v>
+      </c>
+      <c r="N51">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O51">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P51" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>4821</v>
+      </c>
+    </row>
+    <row r="52" spans="10:17">
+      <c r="J52" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="K51">
-        <v>0.01006289308176101</v>
-      </c>
-      <c r="L51">
-        <v>16</v>
-      </c>
-      <c r="M51">
-        <v>23</v>
-      </c>
-      <c r="N51">
-        <v>0.7</v>
-      </c>
-      <c r="O51">
-        <v>0.3</v>
-      </c>
-      <c r="P51" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q51">
-        <v>1574</v>
+      <c r="K52">
+        <v>0.03268482490272374</v>
+      </c>
+      <c r="L52">
+        <v>42</v>
+      </c>
+      <c r="M52">
+        <v>46</v>
+      </c>
+      <c r="N52">
+        <v>0.91</v>
+      </c>
+      <c r="O52">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P52" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="53" spans="10:17">
+      <c r="J53" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K53">
+        <v>0.03243978243978244</v>
+      </c>
+      <c r="L53">
+        <v>167</v>
+      </c>
+      <c r="M53">
+        <v>184</v>
+      </c>
+      <c r="N53">
+        <v>0.91</v>
+      </c>
+      <c r="O53">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P53" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>4981</v>
+      </c>
+    </row>
+    <row r="54" spans="10:17">
+      <c r="J54" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K54">
+        <v>0.03171806167400881</v>
+      </c>
+      <c r="L54">
+        <v>36</v>
+      </c>
+      <c r="M54">
+        <v>41</v>
+      </c>
+      <c r="N54">
+        <v>0.88</v>
+      </c>
+      <c r="O54">
+        <v>0.12</v>
+      </c>
+      <c r="P54" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q54">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="55" spans="10:17">
+      <c r="J55" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K55">
+        <v>0.03014705882352941</v>
+      </c>
+      <c r="L55">
+        <v>41</v>
+      </c>
+      <c r="M55">
+        <v>44</v>
+      </c>
+      <c r="N55">
+        <v>0.93</v>
+      </c>
+      <c r="O55">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P55" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q55">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="56" spans="10:17">
+      <c r="J56" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K56">
+        <v>0.02881040892193308</v>
+      </c>
+      <c r="L56">
+        <v>62</v>
+      </c>
+      <c r="M56">
+        <v>68</v>
+      </c>
+      <c r="N56">
+        <v>0.91</v>
+      </c>
+      <c r="O56">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P56" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q56">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="57" spans="10:17">
+      <c r="J57" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K57">
+        <v>0.02865827181936604</v>
+      </c>
+      <c r="L57">
+        <v>66</v>
+      </c>
+      <c r="M57">
+        <v>72</v>
+      </c>
+      <c r="N57">
+        <v>0.92</v>
+      </c>
+      <c r="O57">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P57" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="58" spans="10:17">
+      <c r="J58" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K58">
+        <v>0.02657106706031211</v>
+      </c>
+      <c r="L58">
+        <v>63</v>
+      </c>
+      <c r="M58">
+        <v>71</v>
+      </c>
+      <c r="N58">
+        <v>0.89</v>
+      </c>
+      <c r="O58">
+        <v>0.11</v>
+      </c>
+      <c r="P58" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>2308</v>
+      </c>
+    </row>
+    <row r="59" spans="10:17">
+      <c r="J59" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K59">
+        <v>0.02548065786425759</v>
+      </c>
+      <c r="L59">
+        <v>110</v>
+      </c>
+      <c r="M59">
+        <v>121</v>
+      </c>
+      <c r="N59">
+        <v>0.91</v>
+      </c>
+      <c r="O59">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P59" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>4207</v>
+      </c>
+    </row>
+    <row r="60" spans="10:17">
+      <c r="J60" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K60">
+        <v>0.02461139896373057</v>
+      </c>
+      <c r="L60">
+        <v>76</v>
+      </c>
+      <c r="M60">
+        <v>95</v>
+      </c>
+      <c r="N60">
+        <v>0.8</v>
+      </c>
+      <c r="O60">
+        <v>0.2</v>
+      </c>
+      <c r="P60" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q60">
+        <v>3012</v>
+      </c>
+    </row>
+    <row r="61" spans="10:17">
+      <c r="J61" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K61">
+        <v>0.02243313201035375</v>
+      </c>
+      <c r="L61">
+        <v>26</v>
+      </c>
+      <c r="M61">
+        <v>28</v>
+      </c>
+      <c r="N61">
+        <v>0.93</v>
+      </c>
+      <c r="O61">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P61" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q61">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="62" spans="10:17">
+      <c r="J62" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K62">
+        <v>0.02196422968308754</v>
+      </c>
+      <c r="L62">
+        <v>70</v>
+      </c>
+      <c r="M62">
+        <v>84</v>
+      </c>
+      <c r="N62">
+        <v>0.83</v>
+      </c>
+      <c r="O62">
+        <v>0.17</v>
+      </c>
+      <c r="P62" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q62">
+        <v>3117</v>
+      </c>
+    </row>
+    <row r="63" spans="10:17">
+      <c r="J63" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K63">
+        <v>0.02006688963210702</v>
+      </c>
+      <c r="L63">
+        <v>48</v>
+      </c>
+      <c r="M63">
+        <v>50</v>
+      </c>
+      <c r="N63">
+        <v>0.96</v>
+      </c>
+      <c r="O63">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P63" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q63">
+        <v>2344</v>
       </c>
     </row>
   </sheetData>
